--- a/Excel/Summon.xlsx
+++ b/Excel/Summon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC873091-1CAA-4804-912D-74A56AA003D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4D1BC6-34C0-4059-8E84-D2FBCF41DE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
   </bookViews>
   <sheets>
     <sheet name="SummonTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="78">
   <si>
     <t>gachaId|String</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>Shot_Weapon05_1_D</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Cash_sSpellGacha</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4F7E5B-6F2D-42BA-966D-3022DC7DA167}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1655,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525C3F02-FF45-4ECB-8714-295D3142A729}">
   <dimension ref="A1:J613"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1771,13 +1777,13 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G4">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -1931,13 +1937,13 @@
         <v>206</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G9">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -2091,13 +2097,13 @@
         <v>546</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G14">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -2187,13 +2193,13 @@
         <v>1021</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G17">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H17" t="s">
         <v>32</v>
@@ -2315,13 +2321,13 @@
         <v>2051</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G21">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
@@ -2411,13 +2417,13 @@
         <v>3651</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G24">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
         <v>32</v>
@@ -2539,13 +2545,13 @@
         <v>6501</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G28">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
@@ -2827,13 +2833,13 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G37">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
         <v>32</v>
@@ -2987,13 +2993,13 @@
         <v>206</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G42">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
@@ -3147,13 +3153,13 @@
         <v>546</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G47">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
@@ -3243,13 +3249,13 @@
         <v>1021</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G50">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H50" t="s">
         <v>32</v>
@@ -3371,13 +3377,13 @@
         <v>2051</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G54">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
@@ -3467,13 +3473,13 @@
         <v>3651</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G57">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
@@ -3595,13 +3601,13 @@
         <v>6501</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G61">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H61" t="s">
         <v>32</v>
@@ -3947,13 +3953,13 @@
         <v>36</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G72">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H72" t="s">
         <v>32</v>
@@ -4107,13 +4113,13 @@
         <v>206</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G77">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H77" t="s">
         <v>32</v>
@@ -4267,13 +4273,13 @@
         <v>546</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G82">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H82" t="s">
         <v>32</v>
@@ -4363,13 +4369,13 @@
         <v>1021</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G85">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
         <v>32</v>
@@ -4491,13 +4497,13 @@
         <v>2051</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G89">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H89" t="s">
         <v>32</v>
@@ -4587,13 +4593,13 @@
         <v>3651</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G92">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H92" t="s">
         <v>32</v>
@@ -4715,13 +4721,13 @@
         <v>6501</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G96">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H96" t="s">
         <v>32</v>
@@ -5419,13 +5425,13 @@
         <v>36</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G118">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>32</v>
@@ -5579,13 +5585,13 @@
         <v>206</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G123">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H123" t="s">
         <v>32</v>
@@ -5739,13 +5745,13 @@
         <v>546</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G128">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H128" t="s">
         <v>32</v>
@@ -5835,13 +5841,13 @@
         <v>1021</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G131">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H131" t="s">
         <v>32</v>
@@ -5963,13 +5969,13 @@
         <v>2051</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G135">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H135" t="s">
         <v>32</v>
@@ -6059,13 +6065,13 @@
         <v>3651</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G138">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H138" t="s">
         <v>32</v>
@@ -6187,13 +6193,13 @@
         <v>6501</v>
       </c>
       <c r="E142" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G142">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H142" t="s">
         <v>32</v>
@@ -7275,13 +7281,13 @@
         <v>36</v>
       </c>
       <c r="E176" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G176">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H176" t="s">
         <v>32</v>
@@ -7435,13 +7441,13 @@
         <v>206</v>
       </c>
       <c r="E181" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G181">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H181" t="s">
         <v>32</v>
@@ -7595,13 +7601,13 @@
         <v>546</v>
       </c>
       <c r="E186" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G186">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H186" t="s">
         <v>32</v>
@@ -7691,13 +7697,13 @@
         <v>1021</v>
       </c>
       <c r="E189" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G189">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H189" t="s">
         <v>32</v>
@@ -7819,13 +7825,13 @@
         <v>2051</v>
       </c>
       <c r="E193" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G193">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H193" t="s">
         <v>32</v>
@@ -7915,13 +7921,13 @@
         <v>3651</v>
       </c>
       <c r="E196" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G196">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H196" t="s">
         <v>32</v>
@@ -8043,13 +8049,13 @@
         <v>6501</v>
       </c>
       <c r="E200" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G200">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H200" t="s">
         <v>32</v>
@@ -8555,13 +8561,13 @@
         <v>36</v>
       </c>
       <c r="E216" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F216" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G216">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H216" t="s">
         <v>32</v>
@@ -8715,13 +8721,13 @@
         <v>206</v>
       </c>
       <c r="E221" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G221">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H221" t="s">
         <v>32</v>
@@ -8875,13 +8881,13 @@
         <v>546</v>
       </c>
       <c r="E226" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G226">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H226" t="s">
         <v>32</v>
@@ -8971,13 +8977,13 @@
         <v>1021</v>
       </c>
       <c r="E229" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G229">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H229" t="s">
         <v>32</v>
@@ -9099,13 +9105,13 @@
         <v>2051</v>
       </c>
       <c r="E233" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G233">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H233" t="s">
         <v>32</v>
@@ -9195,13 +9201,13 @@
         <v>3651</v>
       </c>
       <c r="E236" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G236">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H236" t="s">
         <v>32</v>
@@ -9323,13 +9329,13 @@
         <v>6501</v>
       </c>
       <c r="E240" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G240">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H240" t="s">
         <v>32</v>
@@ -9835,13 +9841,13 @@
         <v>36</v>
       </c>
       <c r="E256" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F256" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G256">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H256" t="s">
         <v>32</v>
@@ -9995,13 +10001,13 @@
         <v>206</v>
       </c>
       <c r="E261" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G261">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H261" t="s">
         <v>32</v>
@@ -10155,13 +10161,13 @@
         <v>546</v>
       </c>
       <c r="E266" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F266" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G266">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H266" t="s">
         <v>32</v>
@@ -10251,13 +10257,13 @@
         <v>1021</v>
       </c>
       <c r="E269" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G269">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H269" t="s">
         <v>32</v>
@@ -10379,13 +10385,13 @@
         <v>2051</v>
       </c>
       <c r="E273" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F273" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G273">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H273" t="s">
         <v>32</v>
@@ -10475,13 +10481,13 @@
         <v>3651</v>
       </c>
       <c r="E276" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G276">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H276" t="s">
         <v>32</v>
@@ -10603,13 +10609,13 @@
         <v>6501</v>
       </c>
       <c r="E280" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F280" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G280">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H280" t="s">
         <v>32</v>
@@ -11115,13 +11121,13 @@
         <v>36</v>
       </c>
       <c r="E296" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F296" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G296">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H296" t="s">
         <v>32</v>
@@ -11275,13 +11281,13 @@
         <v>206</v>
       </c>
       <c r="E301" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F301" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G301">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H301" t="s">
         <v>32</v>
@@ -11435,13 +11441,13 @@
         <v>546</v>
       </c>
       <c r="E306" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F306" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G306">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H306" t="s">
         <v>32</v>
@@ -11531,13 +11537,13 @@
         <v>1021</v>
       </c>
       <c r="E309" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F309" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G309">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H309" t="s">
         <v>32</v>
@@ -11659,13 +11665,13 @@
         <v>2051</v>
       </c>
       <c r="E313" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F313" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G313">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H313" t="s">
         <v>32</v>
@@ -11755,13 +11761,13 @@
         <v>3651</v>
       </c>
       <c r="E316" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F316" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G316">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H316" t="s">
         <v>32</v>
@@ -11883,13 +11889,13 @@
         <v>6501</v>
       </c>
       <c r="E320" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F320" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G320">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H320" t="s">
         <v>32</v>
@@ -12395,13 +12401,13 @@
         <v>36</v>
       </c>
       <c r="E336" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F336" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G336">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H336" t="s">
         <v>32</v>
@@ -12555,13 +12561,13 @@
         <v>206</v>
       </c>
       <c r="E341" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F341" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G341">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H341" t="s">
         <v>32</v>
@@ -12715,13 +12721,13 @@
         <v>546</v>
       </c>
       <c r="E346" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F346" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G346">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H346" t="s">
         <v>32</v>
@@ -12811,13 +12817,13 @@
         <v>1021</v>
       </c>
       <c r="E349" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F349" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G349">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H349" t="s">
         <v>32</v>
@@ -12939,13 +12945,13 @@
         <v>2051</v>
       </c>
       <c r="E353" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F353" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G353">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H353" t="s">
         <v>32</v>
@@ -13035,13 +13041,13 @@
         <v>3651</v>
       </c>
       <c r="E356" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F356" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G356">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H356" t="s">
         <v>32</v>
@@ -13163,13 +13169,13 @@
         <v>6501</v>
       </c>
       <c r="E360" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F360" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G360">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H360" t="s">
         <v>32</v>
@@ -13675,13 +13681,13 @@
         <v>36</v>
       </c>
       <c r="E376" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F376" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G376">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H376" t="s">
         <v>32</v>
@@ -13835,13 +13841,13 @@
         <v>206</v>
       </c>
       <c r="E381" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F381" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G381">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H381" t="s">
         <v>32</v>
@@ -13995,13 +14001,13 @@
         <v>546</v>
       </c>
       <c r="E386" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F386" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G386">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H386" t="s">
         <v>32</v>
@@ -14091,13 +14097,13 @@
         <v>1021</v>
       </c>
       <c r="E389" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F389" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G389">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H389" t="s">
         <v>32</v>
@@ -14219,13 +14225,13 @@
         <v>2051</v>
       </c>
       <c r="E393" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F393" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G393">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H393" t="s">
         <v>32</v>
@@ -14315,13 +14321,13 @@
         <v>3651</v>
       </c>
       <c r="E396" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F396" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G396">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H396" t="s">
         <v>32</v>
@@ -14443,13 +14449,13 @@
         <v>6501</v>
       </c>
       <c r="E400" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F400" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G400">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H400" t="s">
         <v>32</v>
@@ -14955,13 +14961,13 @@
         <v>36</v>
       </c>
       <c r="E416" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F416" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G416">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H416" t="s">
         <v>32</v>
@@ -15115,13 +15121,13 @@
         <v>206</v>
       </c>
       <c r="E421" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F421" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G421">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H421" t="s">
         <v>32</v>
@@ -15275,13 +15281,13 @@
         <v>546</v>
       </c>
       <c r="E426" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F426" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G426">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H426" t="s">
         <v>32</v>
@@ -15371,13 +15377,13 @@
         <v>1021</v>
       </c>
       <c r="E429" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F429" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G429">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H429" t="s">
         <v>32</v>
@@ -15499,13 +15505,13 @@
         <v>2051</v>
       </c>
       <c r="E433" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F433" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G433">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H433" t="s">
         <v>32</v>
@@ -15595,13 +15601,13 @@
         <v>3651</v>
       </c>
       <c r="E436" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F436" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G436">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H436" t="s">
         <v>32</v>
@@ -15723,13 +15729,13 @@
         <v>6501</v>
       </c>
       <c r="E440" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F440" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G440">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H440" t="s">
         <v>32</v>
@@ -16235,13 +16241,13 @@
         <v>36</v>
       </c>
       <c r="E456" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F456" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G456">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H456" t="s">
         <v>32</v>
@@ -16395,13 +16401,13 @@
         <v>206</v>
       </c>
       <c r="E461" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F461" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G461">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H461" t="s">
         <v>32</v>
@@ -16555,13 +16561,13 @@
         <v>546</v>
       </c>
       <c r="E466" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F466" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G466">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H466" t="s">
         <v>32</v>
@@ -16651,13 +16657,13 @@
         <v>1021</v>
       </c>
       <c r="E469" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F469" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G469">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H469" t="s">
         <v>32</v>
@@ -16779,13 +16785,13 @@
         <v>2051</v>
       </c>
       <c r="E473" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F473" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G473">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H473" t="s">
         <v>32</v>
@@ -16875,13 +16881,13 @@
         <v>3651</v>
       </c>
       <c r="E476" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F476" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G476">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H476" t="s">
         <v>32</v>
@@ -17003,13 +17009,13 @@
         <v>6501</v>
       </c>
       <c r="E480" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F480" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G480">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H480" t="s">
         <v>32</v>
@@ -17515,13 +17521,13 @@
         <v>36</v>
       </c>
       <c r="E496" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F496" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G496">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H496" t="s">
         <v>32</v>
@@ -17675,13 +17681,13 @@
         <v>206</v>
       </c>
       <c r="E501" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F501" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G501">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H501" t="s">
         <v>32</v>
@@ -17835,13 +17841,13 @@
         <v>546</v>
       </c>
       <c r="E506" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F506" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G506">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H506" t="s">
         <v>32</v>
@@ -17931,13 +17937,13 @@
         <v>1021</v>
       </c>
       <c r="E509" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F509" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G509">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H509" t="s">
         <v>32</v>
@@ -18059,13 +18065,13 @@
         <v>2051</v>
       </c>
       <c r="E513" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F513" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G513">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H513" t="s">
         <v>32</v>
@@ -18155,13 +18161,13 @@
         <v>3651</v>
       </c>
       <c r="E516" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F516" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G516">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H516" t="s">
         <v>32</v>
@@ -18283,13 +18289,13 @@
         <v>6501</v>
       </c>
       <c r="E520" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F520" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G520">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H520" t="s">
         <v>32</v>
@@ -18795,13 +18801,13 @@
         <v>36</v>
       </c>
       <c r="E536" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F536" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G536">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H536" t="s">
         <v>32</v>
@@ -18955,13 +18961,13 @@
         <v>206</v>
       </c>
       <c r="E541" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F541" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G541">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H541" t="s">
         <v>32</v>
@@ -19115,13 +19121,13 @@
         <v>546</v>
       </c>
       <c r="E546" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F546" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G546">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H546" t="s">
         <v>32</v>
@@ -19211,13 +19217,13 @@
         <v>1021</v>
       </c>
       <c r="E549" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F549" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G549">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H549" t="s">
         <v>32</v>
@@ -19339,13 +19345,13 @@
         <v>2051</v>
       </c>
       <c r="E553" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F553" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G553">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H553" t="s">
         <v>32</v>
@@ -19435,13 +19441,13 @@
         <v>3651</v>
       </c>
       <c r="E556" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F556" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G556">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H556" t="s">
         <v>32</v>
@@ -19563,13 +19569,13 @@
         <v>6501</v>
       </c>
       <c r="E560" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F560" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G560">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H560" t="s">
         <v>32</v>
@@ -20075,13 +20081,13 @@
         <v>36</v>
       </c>
       <c r="E576" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F576" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G576">
-        <v>1875</v>
+        <v>2</v>
       </c>
       <c r="H576" t="s">
         <v>32</v>
@@ -20235,13 +20241,13 @@
         <v>206</v>
       </c>
       <c r="E581" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F581" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G581">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H581" t="s">
         <v>32</v>
@@ -20395,13 +20401,13 @@
         <v>546</v>
       </c>
       <c r="E586" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F586" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G586">
-        <v>16250</v>
+        <v>10</v>
       </c>
       <c r="H586" t="s">
         <v>32</v>
@@ -20491,13 +20497,13 @@
         <v>1021</v>
       </c>
       <c r="E589" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F589" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G589">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H589" t="s">
         <v>32</v>
@@ -20619,13 +20625,13 @@
         <v>2051</v>
       </c>
       <c r="E593" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F593" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G593">
-        <v>37500</v>
+        <v>10</v>
       </c>
       <c r="H593" t="s">
         <v>32</v>
@@ -20715,13 +20721,13 @@
         <v>3651</v>
       </c>
       <c r="E596" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F596" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G596">
-        <v>43750</v>
+        <v>10</v>
       </c>
       <c r="H596" t="s">
         <v>32</v>
@@ -20843,13 +20849,13 @@
         <v>6501</v>
       </c>
       <c r="E600" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F600" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G600">
-        <v>62500</v>
+        <v>10</v>
       </c>
       <c r="H600" t="s">
         <v>32</v>

--- a/Excel/Summon.xlsx
+++ b/Excel/Summon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A020635-28AE-4A1E-A447-60C633EE17F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22C6633-B6B9-4753-89C3-238970B80B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
   </bookViews>
   <sheets>
     <sheet name="SummonTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="79">
   <si>
     <t>gachaId|String</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Cash_sSpellGacha</t>
+  </si>
+  <si>
+    <t>Cash_sCharacterGacha</t>
   </si>
 </sst>
 </file>
@@ -1661,9 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525C3F02-FF45-4ECB-8714-295D3142A729}">
   <dimension ref="A1:J613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2001,13 +2002,13 @@
         <v>362</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G11">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
@@ -2225,13 +2226,13 @@
         <v>1882</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G18">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
@@ -2577,13 +2578,13 @@
         <v>10982</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G29">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
         <v>32</v>
@@ -3057,13 +3058,13 @@
         <v>362</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G44">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>32</v>
@@ -3281,13 +3282,13 @@
         <v>1882</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G51">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
         <v>32</v>
@@ -3633,13 +3634,13 @@
         <v>10982</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G62">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H62" t="s">
         <v>32</v>
@@ -4177,13 +4178,13 @@
         <v>362</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G79">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>32</v>
@@ -4401,13 +4402,13 @@
         <v>1882</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G86">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>32</v>
@@ -4753,13 +4754,13 @@
         <v>10982</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G97">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H97" t="s">
         <v>32</v>
@@ -5649,13 +5650,13 @@
         <v>362</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G125">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>32</v>
@@ -5873,13 +5874,13 @@
         <v>1882</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G132">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>32</v>
@@ -6225,13 +6226,13 @@
         <v>10982</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G143">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H143" t="s">
         <v>32</v>
@@ -7505,13 +7506,13 @@
         <v>362</v>
       </c>
       <c r="E183" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G183">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>32</v>
@@ -7729,13 +7730,13 @@
         <v>1882</v>
       </c>
       <c r="E190" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G190">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>32</v>
@@ -8081,13 +8082,13 @@
         <v>10982</v>
       </c>
       <c r="E201" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G201">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H201" t="s">
         <v>32</v>
@@ -8785,13 +8786,13 @@
         <v>362</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G223">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
         <v>32</v>
@@ -9009,13 +9010,13 @@
         <v>1882</v>
       </c>
       <c r="E230" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G230">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>32</v>
@@ -9361,13 +9362,13 @@
         <v>10982</v>
       </c>
       <c r="E241" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F241" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G241">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H241" t="s">
         <v>32</v>
@@ -10065,13 +10066,13 @@
         <v>362</v>
       </c>
       <c r="E263" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G263">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>32</v>
@@ -10289,13 +10290,13 @@
         <v>1882</v>
       </c>
       <c r="E270" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F270" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G270">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H270" t="s">
         <v>32</v>
@@ -10641,13 +10642,13 @@
         <v>10982</v>
       </c>
       <c r="E281" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F281" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G281">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H281" t="s">
         <v>32</v>
@@ -11345,13 +11346,13 @@
         <v>362</v>
       </c>
       <c r="E303" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F303" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G303">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>32</v>
@@ -11569,13 +11570,13 @@
         <v>1882</v>
       </c>
       <c r="E310" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F310" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G310">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H310" t="s">
         <v>32</v>
@@ -11921,13 +11922,13 @@
         <v>10982</v>
       </c>
       <c r="E321" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F321" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G321">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H321" t="s">
         <v>32</v>
@@ -12625,13 +12626,13 @@
         <v>362</v>
       </c>
       <c r="E343" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F343" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G343">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H343" t="s">
         <v>32</v>
@@ -12849,13 +12850,13 @@
         <v>1882</v>
       </c>
       <c r="E350" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F350" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G350">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
         <v>32</v>
@@ -13201,13 +13202,13 @@
         <v>10982</v>
       </c>
       <c r="E361" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F361" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G361">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H361" t="s">
         <v>32</v>
@@ -13905,13 +13906,13 @@
         <v>362</v>
       </c>
       <c r="E383" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F383" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G383">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H383" t="s">
         <v>32</v>
@@ -14129,13 +14130,13 @@
         <v>1882</v>
       </c>
       <c r="E390" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F390" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G390">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H390" t="s">
         <v>32</v>
@@ -14481,13 +14482,13 @@
         <v>10982</v>
       </c>
       <c r="E401" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F401" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G401">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H401" t="s">
         <v>32</v>
@@ -15185,13 +15186,13 @@
         <v>362</v>
       </c>
       <c r="E423" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F423" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G423">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H423" t="s">
         <v>32</v>
@@ -15409,13 +15410,13 @@
         <v>1882</v>
       </c>
       <c r="E430" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F430" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G430">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H430" t="s">
         <v>32</v>
@@ -15761,13 +15762,13 @@
         <v>10982</v>
       </c>
       <c r="E441" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F441" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G441">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H441" t="s">
         <v>32</v>
@@ -16465,13 +16466,13 @@
         <v>362</v>
       </c>
       <c r="E463" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F463" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G463">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H463" t="s">
         <v>32</v>
@@ -16689,13 +16690,13 @@
         <v>1882</v>
       </c>
       <c r="E470" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F470" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G470">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H470" t="s">
         <v>32</v>
@@ -17041,13 +17042,13 @@
         <v>10982</v>
       </c>
       <c r="E481" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F481" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G481">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H481" t="s">
         <v>32</v>
@@ -17745,13 +17746,13 @@
         <v>362</v>
       </c>
       <c r="E503" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F503" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G503">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H503" t="s">
         <v>32</v>
@@ -17969,13 +17970,13 @@
         <v>1882</v>
       </c>
       <c r="E510" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F510" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G510">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H510" t="s">
         <v>32</v>
@@ -18321,13 +18322,13 @@
         <v>10982</v>
       </c>
       <c r="E521" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F521" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G521">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H521" t="s">
         <v>32</v>
@@ -19025,13 +19026,13 @@
         <v>362</v>
       </c>
       <c r="E543" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F543" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G543">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H543" t="s">
         <v>32</v>
@@ -19249,13 +19250,13 @@
         <v>1882</v>
       </c>
       <c r="E550" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F550" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G550">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H550" t="s">
         <v>32</v>
@@ -19601,13 +19602,13 @@
         <v>10982</v>
       </c>
       <c r="E561" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F561" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G561">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H561" t="s">
         <v>32</v>
@@ -20305,13 +20306,13 @@
         <v>362</v>
       </c>
       <c r="E583" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F583" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G583">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="H583" t="s">
         <v>32</v>
@@ -20529,13 +20530,13 @@
         <v>1882</v>
       </c>
       <c r="E590" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F590" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G590">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="H590" t="s">
         <v>32</v>
@@ -20881,13 +20882,13 @@
         <v>10982</v>
       </c>
       <c r="E601" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F601" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G601">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="H601" t="s">
         <v>32</v>

--- a/Excel/Summon.xlsx
+++ b/Excel/Summon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22C6633-B6B9-4753-89C3-238970B80B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D4A4F5-A193-4F87-9732-1794F38E23B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
   </bookViews>
   <sheets>
     <sheet name="SummonTypeTable" sheetId="1" r:id="rId1"/>
@@ -1708,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -1740,10 +1740,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -1772,10 +1772,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>76</v>
@@ -1804,10 +1804,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -1836,10 +1836,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -1868,10 +1868,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -1900,10 +1900,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -1932,10 +1932,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
         <v>76</v>
@@ -1964,10 +1964,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
@@ -1996,16 +1996,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>362</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
         <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2028,10 +2028,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D12">
-        <v>462</v>
+        <v>347</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -2060,10 +2060,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D13">
-        <v>582</v>
+        <v>437</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -2092,10 +2092,10 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="D14">
-        <v>762</v>
+        <v>572</v>
       </c>
       <c r="E14" t="s">
         <v>76</v>
@@ -2124,10 +2124,10 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D15">
-        <v>962</v>
+        <v>722</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
@@ -2156,10 +2156,10 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="D16">
-        <v>1112</v>
+        <v>835</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
@@ -2188,10 +2188,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="D17">
-        <v>1432</v>
+        <v>1075</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
@@ -2220,16 +2220,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="D18">
-        <v>1882</v>
+        <v>1413</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2252,10 +2252,10 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="D19">
-        <v>2382</v>
+        <v>1788</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
@@ -2284,10 +2284,10 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D20">
-        <v>2582</v>
+        <v>1938</v>
       </c>
       <c r="E20" t="s">
         <v>32</v>
@@ -2316,10 +2316,10 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="D21">
-        <v>2912</v>
+        <v>2186</v>
       </c>
       <c r="E21" t="s">
         <v>76</v>
@@ -2348,10 +2348,10 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="D22">
-        <v>3912</v>
+        <v>2936</v>
       </c>
       <c r="E22" t="s">
         <v>32</v>
@@ -2380,10 +2380,10 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="D23">
-        <v>4242</v>
+        <v>3184</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
@@ -2412,10 +2412,10 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>590</v>
+        <v>443</v>
       </c>
       <c r="D24">
-        <v>4832</v>
+        <v>3627</v>
       </c>
       <c r="E24" t="s">
         <v>76</v>
@@ -2444,10 +2444,10 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="D25">
-        <v>6082</v>
+        <v>4565</v>
       </c>
       <c r="E25" t="s">
         <v>32</v>
@@ -2476,10 +2476,10 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>1900</v>
+        <v>1425</v>
       </c>
       <c r="D26">
-        <v>7982</v>
+        <v>5990</v>
       </c>
       <c r="E26" t="s">
         <v>32</v>
@@ -2508,10 +2508,10 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D27">
-        <v>8182</v>
+        <v>6140</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
@@ -2540,10 +2540,10 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D28">
-        <v>8582</v>
+        <v>6440</v>
       </c>
       <c r="E28" t="s">
         <v>76</v>
@@ -2572,16 +2572,16 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D29">
-        <v>10982</v>
+        <v>8240</v>
       </c>
       <c r="E29" t="s">
         <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29">
         <v>10</v>
@@ -2604,10 +2604,10 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>1500</v>
+        <v>1125</v>
       </c>
       <c r="D30">
-        <v>12482</v>
+        <v>9365</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -2636,10 +2636,10 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="D31">
-        <v>15282</v>
+        <v>11465</v>
       </c>
       <c r="E31" t="s">
         <v>32</v>
@@ -2668,10 +2668,10 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>3400</v>
+        <v>2550</v>
       </c>
       <c r="D32">
-        <v>18682</v>
+        <v>14015</v>
       </c>
       <c r="E32" t="s">
         <v>32</v>
@@ -2700,10 +2700,10 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="D33">
-        <v>19882</v>
+        <v>14915</v>
       </c>
       <c r="E33" t="s">
         <v>32</v>
@@ -2732,10 +2732,10 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>4700</v>
+        <v>3525</v>
       </c>
       <c r="D34">
-        <v>24582</v>
+        <v>18440</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
